--- a/豆丁世纪/安卓/应用市场/免责函授权书/应用商店.xlsx
+++ b/豆丁世纪/安卓/应用市场/免责函授权书/应用商店.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="18600" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="android" sheetId="1" r:id="rId1"/>
@@ -335,10 +335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -402,8 +402,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +492,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -425,20 +507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -447,31 +515,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,65 +538,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -566,49 +566,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,13 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,115 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,80 +788,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -885,157 +811,231 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1105,6 +1105,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1518,19 +1519,19 @@
   <sheetPr/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
     <col min="3" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="44.1666666666667" style="6" customWidth="1"/>
-    <col min="7" max="7" width="22.1666666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.6666666666667" style="6" customWidth="1"/>
-    <col min="9" max="9" width="46.8333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="44.1636363636364" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.1636363636364" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.6636363636364" style="6" customWidth="1"/>
+    <col min="9" max="9" width="46.8363636363636" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1555,9 +1556,9 @@
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="15" spans="1:9">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14" customHeight="1" spans="1:9">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1611,11 +1612,11 @@
       <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="5" customFormat="1" ht="15" spans="1:9">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1640,11 +1641,11 @@
       <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="27" spans="1:9">
+    <row r="5" s="5" customFormat="1" ht="28" spans="1:9">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:9">
+    <row r="6" s="5" customFormat="1" ht="15" spans="1:9">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="28.5" spans="1:9">
+    <row r="7" s="5" customFormat="1" ht="30" spans="1:9">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1727,11 +1728,11 @@
       <c r="H7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:8">
+    <row r="8" s="5" customFormat="1" ht="15" spans="1:8">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:9">
+    <row r="9" ht="28" spans="1:9">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1807,7 +1808,7 @@
       <c r="H10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1820,7 +1821,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="14"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:9">
       <c r="A12" s="22"/>
@@ -1831,7 +1832,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10">
@@ -1858,7 +1859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="27" spans="1:8">
+    <row r="15" s="5" customFormat="1" ht="28" spans="1:8">
       <c r="A15" s="10">
         <v>10</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:8">
+    <row r="16" ht="28" spans="1:8">
       <c r="A16" s="10">
         <v>11</v>
       </c>
@@ -1895,21 +1896,21 @@
       <c r="F16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:8">
+    <row r="17" ht="30" spans="1:8">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="19"/>
@@ -1932,7 +1933,7 @@
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -1942,7 +1943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="28.5" spans="1:8">
+    <row r="19" s="5" customFormat="1" ht="30" spans="1:8">
       <c r="A19" s="10">
         <v>15</v>
       </c>
@@ -1959,7 +1960,7 @@
       <c r="F19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -1978,7 +1979,7 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="27" t="s">
         <v>73</v>
       </c>
       <c r="G20" t="s">
@@ -1991,7 +1992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:9">
+    <row r="21" ht="28" spans="1:9">
       <c r="A21" s="10">
         <v>17</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="14.25" spans="1:8">
+    <row r="22" s="5" customFormat="1" ht="15" spans="1:8">
       <c r="A22" s="10">
         <v>18</v>
       </c>
@@ -2028,7 +2029,7 @@
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G22" t="s">
@@ -2052,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -2065,7 +2066,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:9">
+    <row r="24" ht="15" spans="1:9">
       <c r="A24" s="10">
         <v>20</v>
       </c>
@@ -2077,7 +2078,7 @@
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G24" s="19" t="s">
@@ -2090,7 +2091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" ht="14.25" spans="1:8">
+    <row r="25" s="5" customFormat="1" ht="15" spans="1:8">
       <c r="A25" s="10">
         <v>21</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" ht="27" spans="1:8">
+    <row r="26" s="5" customFormat="1" ht="28" spans="1:8">
       <c r="A26" s="10">
         <v>22</v>
       </c>
@@ -2136,17 +2137,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:8">
+    <row r="27" ht="28" spans="1:8">
       <c r="A27" s="10">
         <v>23</v>
       </c>
       <c r="B27" s="19"/>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="29" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="27" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -2169,7 +2170,7 @@
     <hyperlink ref="G4" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
     <hyperlink ref="G5" r:id="rId4" display="mobile@docin.com" tooltip="mailto:mobile@docin.com"/>
     <hyperlink ref="F14" r:id="rId8" display="https://play.google.com/apps/publish/" tooltip="https://play.google.com/apps/publish/"/>
-    <hyperlink ref="F2" r:id="rId9" display="http://developer.baidu.com/services"/>
+    <hyperlink ref="F2" r:id="rId9" display="http://developer.baidu.com/services" tooltip="http://developer.baidu.com/services"/>
     <hyperlink ref="F21" r:id="rId10" display="http://app.taobao.com/certify/listCertification.htm"/>
     <hyperlink ref="F18" r:id="rId11" display="http://app.meizu.com/"/>
     <hyperlink ref="F20" r:id="rId12" display="http://dev.sj.91.com/"/>
@@ -2178,14 +2179,14 @@
     <hyperlink ref="F9" r:id="rId15" display="http://app.sogou.com/developer/app"/>
     <hyperlink ref="F3" r:id="rId16" display="http://developer.xiaomi.com/myitems/0?userId=118263915"/>
     <hyperlink ref="F24" r:id="rId17" display="http://dev.anzhi.com/index.php"/>
-    <hyperlink ref="F22" r:id="rId18" display="https://developer.amazon.com/home.html"/>
+    <hyperlink ref="F22" r:id="rId18" display="https://developer.amazon.com/home.html" tooltip="https://developer.amazon.com/home.html"/>
     <hyperlink ref="F25" r:id="rId19" display="http://m.163.com/devsoft/toupload.html"/>
-    <hyperlink ref="F15" r:id="rId20" display="http://dev.10086.cn/cmdn/supesite/newdev.controlpanel.php?operation=EL_COMMERCIAL"/>
+    <hyperlink ref="F15" r:id="rId20" display="http://dev.10086.cn/cmdn/supesite/newdev.controlpanel.php?operation=EL_COMMERCIAL" tooltip="http://dev.10086.cn/cmdn/supesite/newdev.controlpanel.php?operation=EL_COMMERCIAL"/>
     <hyperlink ref="F8" r:id="rId21" display="http://dev.mumayi.com/user/index " tooltip="http://dev.mumayi.com/user/index "/>
     <hyperlink ref="F26" r:id="rId22" display="http://www.nduoa.com/developer/apk/index/list/publish"/>
     <hyperlink ref="F5" r:id="rId23" display="http://www.wandoujia.com/apps/dev/home" tooltip="http://www.wandoujia.com/apps/dev/home"/>
     <hyperlink ref="F6" r:id="rId24" display="http://tap.3g.qq.com:8080"/>
-    <hyperlink ref="F4" r:id="rId25" display="http://open.app.360.cn"/>
+    <hyperlink ref="F4" r:id="rId25" display="http://open.app.360.cn" tooltip="http://open.app.360.cn"/>
     <hyperlink ref="F7" r:id="rId26" display="http://www.appchina.com/market/dev/index.action" tooltip="http://www.appchina.com/market/dev/index.action"/>
     <hyperlink ref="F19" r:id="rId27" display="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx" tooltip="http://dev.gfan.com/Aspx/DevApp/LoginUser.aspx"/>
     <hyperlink ref="I6" r:id="rId28" display="http://open.qq.com/" tooltip="http://open.qq.com/"/>
@@ -2198,7 +2199,8 @@
     <hyperlink ref="I7" r:id="rId32" display="http://dev.appchina.com/dev/index"/>
     <hyperlink ref="F10" r:id="rId33" display="http://developer.huawei.com/" tooltip="http://developer.huawei.com/"/>
     <hyperlink ref="G10" r:id="rId6" display="chunyu.cai@docin.com" tooltip="mailto:chunyu.cai@docin.com"/>
-    <hyperlink ref="I10" r:id="rId7" display="docin1012@gmail.com"/>
+    <hyperlink ref="I10" r:id="rId7" display="docin1012@gmail.com" tooltip="mailto:docin1012@gmail.com"/>
+    <hyperlink ref="G19" r:id="rId4" display="mobile@docin.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2215,7 +2217,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2232,11 +2234,11 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="54.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="20.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="54.6636363636364" customWidth="1"/>
+    <col min="5" max="5" width="20.1636363636364" customWidth="1"/>
+    <col min="6" max="6" width="19.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="1:6">
